--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D67ADB22-8894-435B-BB98-D7FACADBFD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985ABD8-20C9-4F4B-908A-2F5FC1AB6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="what are your thoughts on this" sheetId="1" r:id="rId1"/>
+    <sheet name="MyVersion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -115,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,11 +131,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -142,6 +223,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -172,16 +271,16 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="12"/>
+          <color rgb="FF0000FF"/>
         </left>
         <right style="thin">
-          <color indexed="12"/>
+          <color rgb="FF0000FF"/>
         </right>
         <top style="thin">
-          <color indexed="12"/>
+          <color rgb="FF0000FF"/>
         </top>
         <bottom style="thin">
-          <color indexed="12"/>
+          <color rgb="FF0000FF"/>
         </bottom>
       </border>
     </dxf>
@@ -636,6 +735,1244 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-404A-914A-BED1-06CF7E7E5C35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="1160237007"/>
+        <c:axId val="1082376511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1160237007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1082376511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1082376511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160237007"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'what are your thoughts on this'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70F6-4FDC-9FED-FBB99A75B346}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'what are your thoughts on this'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70F6-4FDC-9FED-FBB99A75B346}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'what are your thoughts on this'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70F6-4FDC-9FED-FBB99A75B346}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'what are your thoughts on this'!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70F6-4FDC-9FED-FBB99A75B346}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'what are your thoughts on this'!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'what are your thoughts on this'!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-70F6-4FDC-9FED-FBB99A75B346}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="1625520575"/>
+        <c:axId val="1625519615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1625520575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625519615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1625519615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1625520575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21114419667007273"/>
+          <c:y val="0.26733814010953549"/>
+          <c:w val="0.72375115705956605"/>
+          <c:h val="0.70690073576868473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MyVersion!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="515151"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MyVersion!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MyVersion!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56C7-4F98-B2AF-F82A8E0237CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MyVersion!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="515151"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MyVersion!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MyVersion!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56C7-4F98-B2AF-F82A8E0237CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MyVersion!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CBCBCB"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MyVersion!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MyVersion!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-56C7-4F98-B2AF-F82A8E0237CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MyVersion!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="285E91"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MyVersion!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MyVersion!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-56C7-4F98-B2AF-F82A8E0237CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MyVersion!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="285E91"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MyVersion!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Survey item E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Survey item D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Survey item C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey item B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Survey item A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MyVersion!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-56C7-4F98-B2AF-F82A8E0237CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -831,7 +2168,1097 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1712,21 +4139,438 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB4445F-7AE7-4C6A-C93A-816675C86476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC8E2FD-91A8-4667-9619-510659D8C178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73E6ED2-D766-4F63-856D-2EDD67485C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="896620" y="2296160"/>
+          <a:ext cx="2047240" cy="454660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Survey results</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD063E89-60D8-44EA-B370-A069477E4E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2397760" y="3230880"/>
+          <a:ext cx="2047240" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Percent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of total</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E7856E-1624-4466-82C1-08A67D64891E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2397760" y="2898140"/>
+          <a:ext cx="6372860" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="515151"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Strongly Disagree </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="515151"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Disagree </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="0">
+              <a:solidFill>
+                <a:srgbClr val="CBCBCB"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Neutral</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="CBCBCB"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="285E91"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Agree</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="285E91"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Strongly Agree</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ADE8AFA-DAF2-AA4D-8899-2F078D396A34}" name="Table1" displayName="Table1" ref="B4:G9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EDF3FC26-F87F-4366-A2B9-7FFAFA611C1F}" name="Table13" displayName="Table13" ref="B4:G9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G9">
     <sortCondition descending="1" ref="B5:B9"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{834DA6F1-5092-B042-95E8-DC41698453C0}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{95B5D0C0-4ABB-174C-84FA-2AF034B74032}" name="Strongly Disagree" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E7E30937-F4C6-2F49-AA78-8D0EDE869965}" name="Disagree" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BCAD10A1-19EA-F940-821A-ED547CFC424E}" name="Neutral" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{ECD8D2B7-A8F8-E84D-8759-78E9191B6D99}" name="Agree" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{71D1EDD1-1C55-F147-B8A6-ECEFE8B7CFC8}" name="Strongly Agree" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE9FF71A-ED42-4E95-B8D4-820348E30F30}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{0D5AB780-E274-44B4-B9AF-38C8A7768488}" name="Strongly Disagree" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D9E96AA6-3CAB-44FE-BEC2-12A7C0A1067E}" name="Disagree" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AB735610-0EE8-4784-98FA-5D98EC91DDDD}" name="Neutral" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F5D8EE05-FF2A-48F6-8F76-4F6097090C14}" name="Agree" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EAAABB96-B99E-45E1-BC6F-E82A560EAAFC}" name="Strongly Agree" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1932,18 +4776,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="26" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="26" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1954,8 +4798,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,28 +4809,26 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4">
@@ -2001,12 +4843,12 @@
       <c r="F5" s="4">
         <v>0.18</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
@@ -2021,12 +4863,12 @@
       <c r="F6" s="4">
         <v>0.23</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="7">
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4">
@@ -2041,12 +4883,12 @@
       <c r="F7" s="4">
         <v>0.15</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4">
@@ -2061,31 +4903,31 @@
       <c r="F8" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>0.05</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="11">
         <v>0.05</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <v>0.3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="11">
         <v>0.27</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="12">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2093,7 +4935,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2101,7 +4943,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2109,7 +4951,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2117,993 +4959,2176 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232D9F31-9CD7-42F2-B179-477903819427}">
+  <dimension ref="A1:G1000"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" customWidth="1"/>
+    <col min="2" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="26" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985ABD8-20C9-4F4B-908A-2F5FC1AB6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA69D57-C646-4F67-B6E4-2087F47CE2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Survey item E</t>
+  </si>
+  <si>
+    <t>There really are just three options: Disagree, Neutral, Agree.</t>
+  </si>
+  <si>
+    <t>https://medium.com/nightingale/seven-different-ways-to-display-likert-scale-data-d0c1c9a9ad59</t>
+  </si>
+  <si>
+    <t>Try the diverging bar chart</t>
   </si>
 </sst>
 </file>
@@ -4774,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4962,22 +4971,34 @@
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA69D57-C646-4F67-B6E4-2087F47CE2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CD059-5667-4F36-9107-7CC28E528E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Try the diverging bar chart</t>
+  </si>
+  <si>
+    <t>http://daydreamingnumbers.com/blog/4-ways-to-visualize-likert-scales/</t>
+  </si>
+  <si>
+    <t>Summarize survey questions</t>
+  </si>
+  <si>
+    <t>https://mbounthavong.com/blog/2019/5/16/communicating-data-effectively-with-data-visualization-part-15-divergent-stacked-bar-chart-for-likert-scales</t>
   </si>
 </sst>
 </file>
@@ -4785,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4998,23 +5007,35 @@
       </c>
     </row>
     <row r="31" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781CD059-5667-4F36-9107-7CC28E528E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A5412-D9F1-4251-903A-60761FF96C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="180" windowWidth="19248" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="what are your thoughts on this" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>https://mbounthavong.com/blog/2019/5/16/communicating-data-effectively-with-data-visualization-part-15-divergent-stacked-bar-chart-for-likert-scales</t>
+  </si>
+  <si>
+    <t>I need to try both horizontal and vertical approaches</t>
   </si>
 </sst>
 </file>
@@ -4794,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5027,11 @@
       </c>
     </row>
     <row r="36" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="38" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A5412-D9F1-4251-903A-60761FF96C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDAAC9-E934-48DC-8E08-586709914068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="444" yWindow="180" windowWidth="19248" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>I need to try both horizontal and vertical approaches</t>
+  </si>
+  <si>
+    <t>pie charts are also a possibility.</t>
   </si>
 </sst>
 </file>
@@ -4797,8 +4800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5033,7 +5036,11 @@
       </c>
     </row>
     <row r="38" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="40" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDAAC9-E934-48DC-8E08-586709914068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF21D90D-8F06-4446-9BD9-67629ECED973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="444" yWindow="180" windowWidth="19248" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>pie charts are also a possibility.</t>
+  </si>
+  <si>
+    <t>Consider more narrative options</t>
   </si>
 </sst>
 </file>
@@ -4800,8 +4803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5042,7 +5045,11 @@
       </c>
     </row>
     <row r="40" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="42" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF21D90D-8F06-4446-9BD9-67629ECED973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B96B5F-5B8D-4EE9-AB69-F1C3C9B2A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="444" yWindow="180" windowWidth="19248" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Consider more narrative options</t>
+  </si>
+  <si>
+    <t>The problem for me is the neutral.</t>
+  </si>
+  <si>
+    <t>I don't know how to include that.</t>
   </si>
 </sst>
 </file>
@@ -4803,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5051,8 +5057,16 @@
       </c>
     </row>
     <row r="42" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="45" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B96B5F-5B8D-4EE9-AB69-F1C3C9B2A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56F54B-5FDA-4217-867B-AA424FA7CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="180" windowWidth="19248" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="what are your thoughts on this" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>I don't know how to include that.</t>
+  </si>
+  <si>
+    <t>A pie chart might not be that bad.</t>
   </si>
 </sst>
 </file>
@@ -4809,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5068,7 +5071,11 @@
       </c>
     </row>
     <row r="45" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="47" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56F54B-5FDA-4217-867B-AA424FA7CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879BCEE-5BFC-4FDA-8F97-2060087A27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>A pie chart might not be that bad.</t>
+  </si>
+  <si>
+    <t>I have not resolved how to handle three items. Only the pie chart seems simple. I hate to use that.</t>
   </si>
 </sst>
 </file>
@@ -4812,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5077,7 +5080,11 @@
       </c>
     </row>
     <row r="47" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/SWD_EX42.xlsx
+++ b/SWD_EX42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879BCEE-5BFC-4FDA-8F97-2060087A27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C6733A-57E3-4B25-8BBF-2A62C89479E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>DATA TO GRAPH</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>I have not resolved how to handle three items. Only the pie chart seems simple. I hate to use that.</t>
+  </si>
+  <si>
+    <t>The challenge is done tomorrow. I need to finish my work today.</t>
   </si>
 </sst>
 </file>
@@ -4815,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5085,22 +5088,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
